--- a/inst/extdata/Tutorial/Scenarios.xlsx
+++ b/inst/extdata/Tutorial/Scenarios.xlsx
@@ -31,12 +31,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Pavel Balazki:
 </t>
@@ -106,7 +103,7 @@
     <t xml:space="preserve">I123413</t>
   </si>
   <si>
-    <t xml:space="preserve">iv 1 mg (5 min).pkml</t>
+    <t xml:space="preserve">iv 1 mg 5 min.pkml</t>
   </si>
   <si>
     <t xml:space="preserve">virtual_twin_population</t>
@@ -121,7 +118,7 @@
     <t xml:space="preserve">random_population</t>
   </si>
   <si>
-    <t xml:space="preserve">po 3 mg (solution).pkml</t>
+    <t xml:space="preserve">po 3 mg solution.pkml</t>
   </si>
   <si>
     <t xml:space="preserve">random_population_po</t>
@@ -226,12 +223,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -300,7 +294,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,10 +495,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L5"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,7 +559,6 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -574,7 +567,6 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0"/>
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
@@ -589,7 +581,6 @@
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -604,7 +595,6 @@
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0"/>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
@@ -619,7 +609,6 @@
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="0"/>
       <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
@@ -644,7 +633,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="L2:L5 G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -704,7 +693,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="L2:L5 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
